--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\models\financial-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCF7F5A-A149-4591-8702-8408A27BBAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2278D91B-A71A-4D61-B898-18B2CE4803A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>Price</t>
   </si>
@@ -304,6 +304,63 @@
   </si>
   <si>
     <t xml:space="preserve">Tax Rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Search &amp; Other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YouTube Ads </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Cloud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Bets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hedging Gains </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Google Advertising </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Google Services </t>
+  </si>
+  <si>
+    <t>Search y/y</t>
+  </si>
+  <si>
+    <t>YouTube y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network y/y </t>
+  </si>
+  <si>
+    <t>Advertising y/y</t>
+  </si>
+  <si>
+    <t>Other y/y</t>
+  </si>
+  <si>
+    <t>Services y/y</t>
+  </si>
+  <si>
+    <t>Cloud y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D % </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;M % </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G&amp;A % </t>
   </si>
 </sst>
 </file>
@@ -355,13 +412,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +451,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -410,6 +469,56 @@
         <a:xfrm>
           <a:off x="7345680" y="175260"/>
           <a:ext cx="0" cy="5615940"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A136CC44-2F23-124C-903B-6FCF56F100E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12816840" y="114300"/>
+          <a:ext cx="7620" cy="3314700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -787,13 +896,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A5AAC7-0C74-4175-A509-F8C6D1FBBAAD}">
-  <dimension ref="A1:AC88"/>
+  <dimension ref="A1:AC109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,1340 +1017,2453 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1">
-        <v>55314</v>
+        <v>31879</v>
       </c>
       <c r="D3" s="1">
-        <v>61880</v>
+        <v>35845</v>
       </c>
       <c r="E3" s="1">
-        <v>65118</v>
+        <v>37926</v>
       </c>
       <c r="F3" s="1">
-        <v>75325</v>
+        <v>43301</v>
       </c>
       <c r="G3" s="1">
-        <v>68011</v>
+        <v>39618</v>
       </c>
       <c r="H3" s="1">
-        <v>69685</v>
+        <v>40689</v>
       </c>
       <c r="I3" s="1">
-        <v>69092</v>
+        <v>39539</v>
       </c>
       <c r="J3" s="1">
-        <v>76048</v>
+        <v>42604</v>
       </c>
       <c r="R3" s="1">
         <f>SUM(C3:F3)</f>
-        <v>257637</v>
+        <v>148951</v>
       </c>
       <c r="S3" s="1">
         <f>SUM(G3:J3)</f>
-        <v>282836</v>
+        <v>162450</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1">
-        <v>24103</v>
+        <v>6005</v>
       </c>
       <c r="D4" s="1">
-        <v>26227</v>
+        <v>7002</v>
       </c>
       <c r="E4" s="1">
-        <v>27621</v>
+        <v>7205</v>
       </c>
       <c r="F4" s="1">
-        <v>32988</v>
+        <v>8633</v>
       </c>
       <c r="G4" s="1">
-        <v>29599</v>
+        <v>6869</v>
       </c>
       <c r="H4" s="1">
-        <v>30104</v>
+        <v>7340</v>
       </c>
       <c r="I4" s="1">
-        <v>31158</v>
+        <v>7071</v>
       </c>
       <c r="J4" s="1">
-        <v>35342</v>
+        <v>7963</v>
       </c>
       <c r="R4" s="1">
         <f>SUM(C4:F4)</f>
-        <v>110939</v>
+        <v>28845</v>
       </c>
       <c r="S4" s="1">
         <f>SUM(G4:J4)</f>
-        <v>126203</v>
+        <v>29243</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
-        <f>C3-C4</f>
-        <v>31211</v>
+        <v>6800</v>
       </c>
       <c r="D5" s="1">
-        <f>D3-D4</f>
-        <v>35653</v>
+        <v>7597</v>
       </c>
       <c r="E5" s="1">
-        <f>E3-E4</f>
-        <v>37497</v>
+        <v>7999</v>
       </c>
       <c r="F5" s="1">
-        <f>F3-F4</f>
-        <v>42337</v>
+        <v>9305</v>
       </c>
       <c r="G5" s="1">
-        <f>G3-G4</f>
-        <v>38412</v>
+        <v>8174</v>
       </c>
       <c r="H5" s="1">
-        <f>H3-H4</f>
-        <v>39581</v>
+        <v>8259</v>
       </c>
       <c r="I5" s="1">
-        <f>I3-I4</f>
-        <v>37934</v>
+        <v>7872</v>
       </c>
       <c r="J5" s="1">
-        <f>J3-J4</f>
-        <v>40706</v>
+        <v>8475</v>
       </c>
       <c r="R5" s="1">
-        <f>R3-R4</f>
-        <v>146698</v>
+        <f>SUM(C5:F5)</f>
+        <v>31701</v>
       </c>
       <c r="S5" s="1">
-        <f>S3-S4</f>
-        <v>156633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7485</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7675</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7694</v>
-      </c>
-      <c r="F6" s="1">
-        <v>8708</v>
-      </c>
-      <c r="G6" s="1">
-        <v>9119</v>
-      </c>
-      <c r="H6" s="1">
-        <v>9841</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10273</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10267</v>
-      </c>
-      <c r="R6" s="1">
-        <f>SUM(C6:F6)</f>
-        <v>31562</v>
-      </c>
-      <c r="S6" s="1">
-        <f>SUM(G6:J6)</f>
-        <v>39500</v>
+        <f>SUM(G5:J5)</f>
+        <v>32780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C3:C5)</f>
+        <v>44684</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D3:D5)</f>
+        <v>50444</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E3:E5)</f>
+        <v>53130</v>
+      </c>
+      <c r="F6" s="4">
+        <f>SUM(F3:F5)</f>
+        <v>61239</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM(G3:G5)</f>
+        <v>54661</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM(H3:H5)</f>
+        <v>56288</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUM(I3:I5)</f>
+        <v>54482</v>
+      </c>
+      <c r="J6" s="4">
+        <f>SUM(J3:J5)</f>
+        <v>59042</v>
+      </c>
+      <c r="R6" s="4">
+        <f>SUM(R3:R5)</f>
+        <v>209497</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUM(S3:S5)</f>
+        <v>224473</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1">
-        <v>4516</v>
+        <v>6494</v>
       </c>
       <c r="D7" s="1">
-        <v>5276</v>
+        <v>6623</v>
       </c>
       <c r="E7" s="1">
-        <v>5516</v>
+        <v>6754</v>
       </c>
       <c r="F7" s="1">
-        <v>7604</v>
+        <v>8161</v>
       </c>
       <c r="G7" s="1">
-        <v>5825</v>
+        <v>6811</v>
       </c>
       <c r="H7" s="1">
-        <v>6630</v>
+        <v>6553</v>
       </c>
       <c r="I7" s="1">
-        <v>6929</v>
+        <v>6895</v>
       </c>
       <c r="J7" s="1">
-        <v>7183</v>
+        <v>8796</v>
       </c>
       <c r="R7" s="1">
         <f>SUM(C7:F7)</f>
-        <v>22912</v>
+        <v>28032</v>
       </c>
       <c r="S7" s="1">
         <f>SUM(G7:J7)</f>
-        <v>26567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2773</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3341</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3256</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4140</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3374</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3657</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3597</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5096</v>
-      </c>
-      <c r="R8" s="1">
-        <f>SUM(C8:F8)</f>
-        <v>13510</v>
-      </c>
-      <c r="S8" s="1">
-        <f>SUM(G8:J8)</f>
-        <v>15724</v>
+        <v>29055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM(C6:C7)</f>
+        <v>51178</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D6:D7)</f>
+        <v>57067</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM(E6:E7)</f>
+        <v>59884</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM(F6:F7)</f>
+        <v>69400</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM(G6:G7)</f>
+        <v>61472</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM(H6:H7)</f>
+        <v>62841</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUM(I6:I7)</f>
+        <v>61377</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUM(J6:J7)</f>
+        <v>67838</v>
+      </c>
+      <c r="R8" s="4">
+        <f>SUM(R6:R7)</f>
+        <v>237529</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUM(S6:S7)</f>
+        <v>253528</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1">
-        <f>SUM(C6:C8)</f>
-        <v>14774</v>
+        <v>4047</v>
       </c>
       <c r="D9" s="1">
-        <f>SUM(D6:D8)</f>
-        <v>16292</v>
+        <v>4628</v>
       </c>
       <c r="E9" s="1">
-        <f>SUM(E6:E8)</f>
-        <v>16466</v>
+        <v>4990</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM(F6:F8)</f>
-        <v>20452</v>
+        <v>5541</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM(G6:G8)</f>
-        <v>18318</v>
+        <v>5821</v>
       </c>
       <c r="H9" s="1">
-        <f>SUM(H6:H8)</f>
-        <v>20128</v>
+        <v>6276</v>
       </c>
       <c r="I9" s="1">
-        <f>SUM(I6:I8)</f>
-        <v>20799</v>
+        <v>6868</v>
       </c>
       <c r="J9" s="1">
-        <f>SUM(J6:J8)</f>
-        <v>22546</v>
+        <v>7315</v>
       </c>
       <c r="R9" s="1">
-        <f>SUM(R6:R8)</f>
-        <v>67984</v>
+        <f>SUM(C9:F9)</f>
+        <v>19206</v>
       </c>
       <c r="S9" s="1">
-        <f>SUM(S6:S8)</f>
-        <v>81791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <f>C5-C9</f>
-        <v>16437</v>
-      </c>
-      <c r="D10" s="1">
-        <f>D5-D9</f>
-        <v>19361</v>
-      </c>
-      <c r="E10" s="1">
-        <f>E5-E9</f>
-        <v>21031</v>
-      </c>
-      <c r="F10" s="1">
-        <f>F5-F9</f>
-        <v>21885</v>
-      </c>
-      <c r="G10" s="1">
-        <f>G5-G9</f>
-        <v>20094</v>
-      </c>
-      <c r="H10" s="1">
-        <f>H5-H9</f>
-        <v>19453</v>
-      </c>
-      <c r="I10" s="1">
-        <f>I5-I9</f>
-        <v>17135</v>
-      </c>
-      <c r="J10" s="1">
-        <f>J5-J9</f>
-        <v>18160</v>
+        <f>SUM(G9:J9)</f>
+        <v>26280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="7">
+        <v>198</v>
+      </c>
+      <c r="D10" s="7">
+        <v>192</v>
+      </c>
+      <c r="E10" s="7">
+        <v>182</v>
+      </c>
+      <c r="F10" s="7">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7">
+        <v>440</v>
+      </c>
+      <c r="H10" s="7">
+        <v>193</v>
+      </c>
+      <c r="I10" s="7">
+        <v>209</v>
+      </c>
+      <c r="J10" s="7">
+        <v>226</v>
       </c>
       <c r="R10" s="1">
-        <f>R5-R9</f>
-        <v>78714</v>
+        <f>SUM(C10:F10)</f>
+        <v>753</v>
       </c>
       <c r="S10" s="1">
-        <f>S5-S9</f>
-        <v>74842</v>
+        <f>SUM(G10:J10)</f>
+        <v>1068</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1">
-        <v>4846</v>
+        <v>-109</v>
       </c>
       <c r="D11" s="1">
-        <v>2624</v>
+        <v>-7</v>
       </c>
       <c r="E11" s="1">
-        <v>2033</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1">
-        <v>2517</v>
+        <v>203</v>
       </c>
       <c r="G11" s="1">
-        <v>-1160</v>
+        <v>278</v>
       </c>
       <c r="H11" s="1">
-        <v>-439</v>
+        <v>375</v>
       </c>
       <c r="I11" s="1">
-        <v>-902</v>
+        <v>638</v>
       </c>
       <c r="J11" s="1">
-        <v>-1013</v>
+        <v>669</v>
       </c>
       <c r="R11" s="1">
         <f>SUM(C11:F11)</f>
-        <v>12020</v>
+        <v>149</v>
       </c>
       <c r="S11" s="1">
         <f>SUM(G11:J11)</f>
-        <v>-3514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
-        <f>C10+C11</f>
-        <v>21283</v>
-      </c>
-      <c r="D12" s="1">
-        <f>D10+D11</f>
-        <v>21985</v>
-      </c>
-      <c r="E12" s="1">
-        <f>E10+E11</f>
-        <v>23064</v>
-      </c>
-      <c r="F12" s="1">
-        <f>F10+F11</f>
-        <v>24402</v>
-      </c>
-      <c r="G12" s="1">
-        <f>G10+G11</f>
-        <v>18934</v>
-      </c>
-      <c r="H12" s="1">
-        <f>H10+H11</f>
-        <v>19014</v>
-      </c>
-      <c r="I12" s="1">
-        <f>I10+I11</f>
-        <v>16233</v>
-      </c>
-      <c r="J12" s="1">
-        <f>J10+J11</f>
-        <v>17147</v>
-      </c>
-      <c r="R12" s="1">
-        <f>R10+R11</f>
-        <v>90734</v>
-      </c>
-      <c r="S12" s="1">
-        <f>S10+S11</f>
-        <v>71328</v>
-      </c>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
-        <v>3353</v>
+        <f>SUM(C8:C11)</f>
+        <v>55314</v>
       </c>
       <c r="D13" s="1">
-        <v>3460</v>
+        <f>SUM(D8:D11)</f>
+        <v>61880</v>
       </c>
       <c r="E13" s="1">
-        <v>4128</v>
+        <f>SUM(E8:E11)</f>
+        <v>65118</v>
       </c>
       <c r="F13" s="1">
-        <v>3760</v>
+        <f>SUM(F8:F11)</f>
+        <v>75325</v>
       </c>
       <c r="G13" s="1">
-        <v>2498</v>
+        <f>SUM(G8:G11)</f>
+        <v>68011</v>
       </c>
       <c r="H13" s="1">
-        <v>3012</v>
+        <f>SUM(H8:H11)</f>
+        <v>69685</v>
       </c>
       <c r="I13" s="1">
-        <v>2323</v>
+        <f>SUM(I8:I11)</f>
+        <v>69092</v>
       </c>
       <c r="J13" s="1">
-        <v>3523</v>
+        <f>SUM(J8:J11)</f>
+        <v>76048</v>
       </c>
       <c r="R13" s="1">
-        <f>SUM(C13:F13)</f>
-        <v>14701</v>
+        <f>SUM(R8:R11)</f>
+        <v>257637</v>
       </c>
       <c r="S13" s="1">
-        <f>SUM(G13:J13)</f>
-        <v>11356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4">
-        <f>C12-C13</f>
-        <v>17930</v>
-      </c>
-      <c r="D14" s="4">
-        <f>D12-D13</f>
-        <v>18525</v>
-      </c>
-      <c r="E14" s="4">
-        <f>E12-E13</f>
-        <v>18936</v>
-      </c>
-      <c r="F14" s="4">
-        <f>F12-F13</f>
-        <v>20642</v>
-      </c>
-      <c r="G14" s="4">
-        <f>G12-G13</f>
-        <v>16436</v>
-      </c>
-      <c r="H14" s="4">
-        <f>H12-H13</f>
-        <v>16002</v>
-      </c>
-      <c r="I14" s="4">
-        <f>I12-I13</f>
-        <v>13910</v>
-      </c>
-      <c r="J14" s="4">
-        <f>J12-J13</f>
-        <v>13624</v>
-      </c>
-      <c r="R14" s="4">
-        <f>R12-R13</f>
-        <v>76033</v>
-      </c>
-      <c r="S14" s="4">
-        <f>S12-S13</f>
-        <v>59972</v>
+        <f>SUM(S8:S11)</f>
+        <v>282836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24103</v>
+      </c>
+      <c r="D14" s="1">
+        <v>26227</v>
+      </c>
+      <c r="E14" s="1">
+        <v>27621</v>
+      </c>
+      <c r="F14" s="1">
+        <v>32988</v>
+      </c>
+      <c r="G14" s="1">
+        <v>29599</v>
+      </c>
+      <c r="H14" s="1">
+        <v>30104</v>
+      </c>
+      <c r="I14" s="1">
+        <v>31158</v>
+      </c>
+      <c r="J14" s="1">
+        <v>35342</v>
+      </c>
+      <c r="R14" s="1">
+        <f>SUM(C14:F14)</f>
+        <v>110939</v>
+      </c>
+      <c r="S14" s="1">
+        <f>SUM(G14:J14)</f>
+        <v>126203</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <f>D14/D16</f>
-        <v>1.3846326332311831</v>
-      </c>
-      <c r="E15" s="2">
-        <f>E14/E16</f>
-        <v>1.4221554637626737</v>
-      </c>
-      <c r="F15" s="2">
-        <f>F14/F16</f>
-        <v>1.5575341432128575</v>
-      </c>
-      <c r="G15" s="2">
-        <f>G14/G16</f>
-        <v>24.959761685726178</v>
-      </c>
-      <c r="H15" s="2">
-        <f>H14/H16</f>
-        <v>1.2184573212518084</v>
-      </c>
-      <c r="I15" s="2">
-        <f>I14/I16</f>
-        <v>1.0685205100629898</v>
-      </c>
-      <c r="J15" s="2">
-        <f>J14/J16</f>
-        <v>1.0563696983794681</v>
-      </c>
-      <c r="R15" s="2">
-        <f>R14/R16</f>
-        <v>5.7100408040653869</v>
-      </c>
-      <c r="S15" s="2">
-        <f>S14/S16</f>
-        <v>4.6075599262446216</v>
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:J15" si="1">C13-C14</f>
+        <v>31211</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>35653</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>37497</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>42337</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>38412</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>39581</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>37934</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>40706</v>
+      </c>
+      <c r="R15" s="1">
+        <f>R13-R14</f>
+        <v>146698</v>
+      </c>
+      <c r="S15" s="1">
+        <f>S13-S14</f>
+        <v>156633</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7485</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7675</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7694</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8708</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9119</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9841</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10273</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10267</v>
+      </c>
+      <c r="R16" s="1">
+        <f>SUM(C16:F16)</f>
+        <v>31562</v>
+      </c>
+      <c r="S16" s="1">
+        <f>SUM(G16:J16)</f>
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4516</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5276</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5516</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7604</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5825</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6630</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6929</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7183</v>
+      </c>
+      <c r="R17" s="1">
+        <f>SUM(C17:F17)</f>
+        <v>22912</v>
+      </c>
+      <c r="S17" s="1">
+        <f>SUM(G17:J17)</f>
+        <v>26567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2773</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3341</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3256</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4140</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3374</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3657</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3597</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5096</v>
+      </c>
+      <c r="R18" s="1">
+        <f>SUM(C18:F18)</f>
+        <v>13510</v>
+      </c>
+      <c r="S18" s="1">
+        <f>SUM(G18:J18)</f>
+        <v>15724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:J19" si="2">SUM(C16:C18)</f>
+        <v>14774</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>16292</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>16466</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>20452</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>18318</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>20128</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>20799</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>22546</v>
+      </c>
+      <c r="R19" s="1">
+        <f>SUM(R16:R18)</f>
+        <v>67984</v>
+      </c>
+      <c r="S19" s="1">
+        <f>SUM(S16:S18)</f>
+        <v>81791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ref="C20:J20" si="3">C15-C19</f>
+        <v>16437</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>19361</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>21031</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>21885</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>20094</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>19453</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>17135</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
+        <v>18160</v>
+      </c>
+      <c r="R20" s="1">
+        <f>R15-R19</f>
+        <v>78714</v>
+      </c>
+      <c r="S20" s="1">
+        <f>S15-S19</f>
+        <v>74842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4846</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2624</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2033</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2517</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-1160</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-439</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-902</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-1013</v>
+      </c>
+      <c r="R21" s="1">
+        <f>SUM(C21:F21)</f>
+        <v>12020</v>
+      </c>
+      <c r="S21" s="1">
+        <f>SUM(G21:J21)</f>
+        <v>-3514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:J22" si="4">C20+C21</f>
+        <v>21283</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="4"/>
+        <v>21985</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="4"/>
+        <v>23064</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="4"/>
+        <v>24402</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="4"/>
+        <v>18934</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="4"/>
+        <v>19014</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>16233</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="4"/>
+        <v>17147</v>
+      </c>
+      <c r="R22" s="1">
+        <f>R20+R21</f>
+        <v>90734</v>
+      </c>
+      <c r="S22" s="1">
+        <f>S20+S21</f>
+        <v>71328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3353</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3460</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4128</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3760</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2498</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3012</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2323</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3523</v>
+      </c>
+      <c r="R23" s="1">
+        <f>SUM(C23:F23)</f>
+        <v>14701</v>
+      </c>
+      <c r="S23" s="1">
+        <f>SUM(G23:J23)</f>
+        <v>11356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:J24" si="5">C22-C23</f>
+        <v>17930</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="5"/>
+        <v>18525</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="5"/>
+        <v>18936</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="5"/>
+        <v>20642</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="5"/>
+        <v>16436</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="5"/>
+        <v>16002</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="5"/>
+        <v>13910</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="5"/>
+        <v>13624</v>
+      </c>
+      <c r="R24" s="4">
+        <f>R22-R23</f>
+        <v>76033</v>
+      </c>
+      <c r="S24" s="4">
+        <f>S22-S23</f>
+        <v>59972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:J25" si="6">D24/D26</f>
+        <v>1.3846326332311831</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4221554637626737</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5575341432128575</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="6"/>
+        <v>24.959761685726178</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2184573212518084</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0685205100629898</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0563696983794681</v>
+      </c>
+      <c r="R25" s="2">
+        <f>R24/R26</f>
+        <v>5.7100408040653869</v>
+      </c>
+      <c r="S25" s="2">
+        <f>S24/S26</f>
+        <v>4.6075599262446216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D26" s="1">
         <v>13379</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E26" s="1">
         <v>13315</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F26" s="1">
         <v>13253</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G26" s="1">
         <f>300.763622+44.359838+313.376417</f>
         <v>658.49987699999997</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H26" s="1">
         <v>13133</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I26" s="1">
         <v>13018</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J26" s="1">
         <v>12897</v>
       </c>
-      <c r="R16" s="1">
-        <f>AVERAGE(C16:F16)</f>
+      <c r="R26" s="1">
+        <f>AVERAGE(C26:F26)</f>
         <v>13315.666666666666</v>
       </c>
-      <c r="S16" s="1">
-        <f>AVERAGE(H16:J16)</f>
+      <c r="S26" s="1">
+        <f>AVERAGE(H26:J26)</f>
         <v>13016</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:I18" si="1">G3/C3-1</f>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <f t="shared" ref="G28:I28" si="7">G13/C13-1</f>
         <v>0.22954405756228069</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" si="1"/>
+      <c r="H28" s="5">
+        <f t="shared" si="7"/>
         <v>0.12613122171945701</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="1"/>
+      <c r="I28" s="5">
+        <f t="shared" si="7"/>
         <v>6.1027672840074931E-2</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J28" s="5">
+        <f>J13/F13-1</f>
+        <v>9.5984069034185104E-3</v>
+      </c>
+      <c r="S28" s="5">
+        <f>S13/R13-1</f>
+        <v>9.7808156437157789E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" ref="C29:F29" si="8">C15/C13</f>
+        <v>0.56425136493473627</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="8"/>
+        <v>0.57616354234001288</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="8"/>
+        <v>0.57583156730857832</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="8"/>
+        <v>0.56205774975107869</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" ref="G29:I29" si="9">G15/G13</f>
+        <v>0.5647909896928438</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="9"/>
+        <v>0.56799885197675248</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="9"/>
+        <v>0.54903606785156023</v>
+      </c>
+      <c r="J29" s="5">
+        <f>J15/J13</f>
+        <v>0.53526719966337055</v>
+      </c>
+      <c r="R29" s="5">
+        <f>R15/R13</f>
+        <v>0.5693980290098084</v>
+      </c>
+      <c r="S29" s="5">
+        <f>S15/S13</f>
+        <v>0.55379442503783116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" ref="C30:I30" si="10">C23/C22</f>
+        <v>0.15754357938260583</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="10"/>
+        <v>0.15738003183989083</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17898022892819979</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="10"/>
+        <v>0.15408573067781328</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="10"/>
+        <v>0.13193197422625963</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="10"/>
+        <v>0.15840959293152415</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="10"/>
+        <v>0.14310355448777182</v>
+      </c>
+      <c r="J30" s="5">
+        <f>J23/J22</f>
+        <v>0.20545868081880211</v>
+      </c>
+      <c r="R30" s="5">
+        <f>R23/R22</f>
+        <v>0.16202305640663919</v>
+      </c>
+      <c r="S30" s="5">
+        <f>S23/S22</f>
+        <v>0.1592081650964558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="5">
+        <f>C16/C13</f>
+        <v>0.13531836424774921</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:J31" si="11">D16/D13</f>
+        <v>0.12403038138332256</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11815473448201726</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11560570859608364</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="11"/>
+        <v>0.13408125156224729</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="11"/>
+        <v>0.14122120972949703</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="11"/>
+        <v>0.14868581022404909</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="11"/>
+        <v>0.13500683778666106</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="5">
+        <f>C17/C13</f>
+        <v>8.1642983693097582E-2</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" ref="D32:J32" si="12">D17/D13</f>
+        <v>8.5261797026502911E-2</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="12"/>
+        <v>8.4707761294880057E-2</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="12"/>
+        <v>0.10094922004646532</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="12"/>
+        <v>8.5647909896928442E-2</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="12"/>
+        <v>9.514242663413934E-2</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="12"/>
+        <v>0.10028657442250911</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="12"/>
+        <v>9.4453503050704823E-2</v>
+      </c>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="5">
+        <f>C18/C13</f>
+        <v>5.0131973822178835E-2</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" ref="D33:J33" si="13">D18/D13</f>
+        <v>5.3991596638655465E-2</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="13"/>
+        <v>5.0001535673700054E-2</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="13"/>
+        <v>5.4961832061068701E-2</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="13"/>
+        <v>4.9609621972916143E-2</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="13"/>
+        <v>5.2479012700007176E-2</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="13"/>
+        <v>5.2061020089156487E-2</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="13"/>
+        <v>6.7010309278350513E-2</v>
+      </c>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5">
+        <f t="shared" ref="G35:I40" si="14">G3/C3-1</f>
+        <v>0.24276169265033398</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="14"/>
+        <v>0.13513739712651684</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="14"/>
+        <v>4.2530190370722032E-2</v>
+      </c>
+      <c r="J35" s="5">
         <f>J3/F3-1</f>
-        <v>9.5984069034185104E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" ref="C19:F19" si="2">C5/C3</f>
-        <v>0.56425136493473627</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="2"/>
-        <v>0.57616354234001288</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="2"/>
-        <v>0.57583156730857832</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="2"/>
-        <v>0.56205774975107869</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" ref="G19:I19" si="3">G5/G3</f>
-        <v>0.5647909896928438</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="3"/>
-        <v>0.56799885197675248</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="3"/>
-        <v>0.54903606785156023</v>
-      </c>
-      <c r="J19" s="5">
-        <f>J5/J3</f>
-        <v>0.53526719966337055</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="5">
-        <f t="shared" ref="C20:I20" si="4">C13/C12</f>
-        <v>0.15754357938260583</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.15738003183989083</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.17898022892819979</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.15408573067781328</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.13193197422625963</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.15840959293152415</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14310355448777182</v>
-      </c>
-      <c r="J20" s="5">
-        <f>J13/J12</f>
-        <v>0.20545868081880211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+        <v>-1.6096625943973542E-2</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="S35" s="5">
+        <f>S3/R3-1</f>
+        <v>9.0627118985438182E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5">
+        <f t="shared" si="14"/>
+        <v>0.143880099916736</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="14"/>
+        <v>4.8271922307911996E-2</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="14"/>
+        <v>-1.8598195697432374E-2</v>
+      </c>
+      <c r="J36" s="5">
+        <f>J4/F4-1</f>
+        <v>-7.7609174099386058E-2</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="S36" s="5">
+        <f>S4/R4-1</f>
+        <v>1.3797885248743258E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5">
+        <f t="shared" si="14"/>
+        <v>0.20205882352941185</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="14"/>
+        <v>8.7139660392260065E-2</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="14"/>
+        <v>-1.587698462307785E-2</v>
+      </c>
+      <c r="J37" s="5">
+        <f>J5/F5-1</f>
+        <v>-8.9199355185384244E-2</v>
+      </c>
+      <c r="S37" s="5">
+        <f>S5/R5-1</f>
+        <v>3.4036781174095365E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5">
+        <f t="shared" si="14"/>
+        <v>0.22327902604959271</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="14"/>
+        <v>0.11585124098009669</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="14"/>
+        <v>2.5447016751364515E-2</v>
+      </c>
+      <c r="J38" s="5">
+        <f>J6/F6-1</f>
+        <v>-3.5875830761442851E-2</v>
+      </c>
+      <c r="S38" s="5">
+        <f>S6/R6-1</f>
+        <v>7.14855105323704E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5">
+        <f t="shared" si="14"/>
+        <v>4.8814290113951442E-2</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="14"/>
+        <v>-1.0569228446323464E-2</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="14"/>
+        <v>2.0876517619188739E-2</v>
+      </c>
+      <c r="J39" s="5">
+        <f>J7/F7-1</f>
+        <v>7.7809092023036319E-2</v>
+      </c>
+      <c r="S39" s="5">
+        <f>S7/R7-1</f>
+        <v>3.6494006849315141E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5">
+        <f t="shared" si="14"/>
+        <v>0.20114111532299028</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="14"/>
+        <v>0.10117931554138115</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="14"/>
+        <v>2.4931534299645897E-2</v>
+      </c>
+      <c r="J40" s="5">
+        <f>J8/F8-1</f>
+        <v>-2.2507204610951015E-2</v>
+      </c>
+      <c r="S40" s="5">
+        <f>S8/R8-1</f>
+        <v>6.7355986005919188E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5">
+        <f t="shared" ref="G41:I41" si="15">G9/C9-1</f>
+        <v>0.4383493946132937</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="15"/>
+        <v>0.35609334485738975</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="15"/>
+        <v>0.37635270541082155</v>
+      </c>
+      <c r="J41" s="5">
+        <f>J9/F9-1</f>
+        <v>0.3201588160981772</v>
+      </c>
+      <c r="S41" s="5">
+        <f>S9/R9-1</f>
+        <v>0.36832239925023424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="4">
-        <f>I23-I40</f>
+      <c r="G43" s="4">
+        <f>G44-G61</f>
+        <v>149723</v>
+      </c>
+      <c r="H43" s="4">
+        <f>H44-H61</f>
+        <v>140928</v>
+      </c>
+      <c r="I43" s="4">
+        <f>I44-I61</f>
         <v>132025</v>
       </c>
-      <c r="J22" s="4">
-        <f>J23-J40</f>
+      <c r="J43" s="4">
+        <f>J44-J61</f>
         <v>129553</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="1">
+      <c r="G44" s="1">
+        <f>133970+30544</f>
+        <v>164514</v>
+      </c>
+      <c r="H44" s="1">
+        <f>124997+30665</f>
+        <v>155662</v>
+      </c>
+      <c r="I44" s="1">
         <f>116259+30419</f>
         <v>146678</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J44" s="1">
         <f>113762+30492</f>
         <v>144254</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="1">
+      <c r="G45" s="1">
+        <v>34703</v>
+      </c>
+      <c r="H45" s="1">
+        <v>35707</v>
+      </c>
+      <c r="I45" s="1">
         <v>34697</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J45" s="1">
         <v>40258</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="1">
+      <c r="G46" s="1">
+        <v>1369</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1980</v>
+      </c>
+      <c r="I46" s="1">
         <v>3156</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J46" s="1">
         <v>2670</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="1">
+      <c r="G47" s="1">
+        <v>6892</v>
+      </c>
+      <c r="H47" s="1">
+        <v>8321</v>
+      </c>
+      <c r="I47" s="1">
         <v>10518</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J47" s="1">
         <v>8105</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="1">
+      <c r="G48" s="1">
+        <f>919+1388</f>
+        <v>2307</v>
+      </c>
+      <c r="H48" s="1">
+        <f>1366+1490</f>
+        <v>2856</v>
+      </c>
+      <c r="I48" s="1">
         <f>1479+2991</f>
         <v>4470</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J48" s="1">
         <v>5261</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="1">
+      <c r="G49" s="1">
+        <v>104218</v>
+      </c>
+      <c r="H49" s="1">
+        <v>106223</v>
+      </c>
+      <c r="I49" s="1">
         <v>108363</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J49" s="1">
         <v>112668</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="1">
+      <c r="G50" s="1">
+        <v>12992</v>
+      </c>
+      <c r="H50" s="1">
+        <v>13398</v>
+      </c>
+      <c r="I50" s="1">
         <v>13677</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J50" s="1">
         <v>14381</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="1">
+      <c r="G51" s="1">
+        <v>1313</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1377</v>
+      </c>
+      <c r="I51" s="1">
         <v>2192</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J51" s="1">
         <v>2084</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="1">
+      <c r="G52" s="1">
+        <v>23010</v>
+      </c>
+      <c r="H52" s="1">
+        <v>23949</v>
+      </c>
+      <c r="I52" s="1">
         <v>28834</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J52" s="1">
         <v>28960</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="1">
+      <c r="G53" s="1">
+        <v>5778</v>
+      </c>
+      <c r="H53" s="1">
+        <v>5712</v>
+      </c>
+      <c r="I53" s="1">
         <v>5670</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J53" s="1">
         <v>6623</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="1">
-        <f>SUM(I23:I32)</f>
+      <c r="G54" s="1">
+        <f>SUM(G44:G53)</f>
+        <v>357096</v>
+      </c>
+      <c r="H54" s="1">
+        <f>SUM(H44:H53)</f>
+        <v>355185</v>
+      </c>
+      <c r="I54" s="1">
+        <f>SUM(I44:I53)</f>
         <v>358255</v>
       </c>
-      <c r="J33" s="1">
-        <f>SUM(J23:J32)</f>
+      <c r="J54" s="1">
+        <f>SUM(J44:J53)</f>
         <v>365264</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="1">
+      <c r="G56" s="1">
+        <v>3436</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4409</v>
+      </c>
+      <c r="I56" s="1">
         <v>6303</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J56" s="1">
         <v>5128</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="1">
+      <c r="G57" s="1">
+        <v>9803</v>
+      </c>
+      <c r="H57" s="1">
+        <v>10852</v>
+      </c>
+      <c r="I57" s="1">
         <v>12366</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J57" s="1">
         <v>14028</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="1">
+      <c r="G58" s="1">
+        <v>33051</v>
+      </c>
+      <c r="H58" s="1">
+        <v>32976</v>
+      </c>
+      <c r="I58" s="1">
         <v>35038</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J58" s="1">
         <v>37866</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="1">
+      <c r="G59" s="1">
+        <v>8116</v>
+      </c>
+      <c r="H59" s="1">
+        <v>7889</v>
+      </c>
+      <c r="I59" s="1">
         <v>7662</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J59" s="1">
         <v>8370</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="1">
+      <c r="G60" s="1">
+        <f>3198+499</f>
+        <v>3697</v>
+      </c>
+      <c r="H60" s="1">
+        <f>472+3272</f>
+        <v>3744</v>
+      </c>
+      <c r="I60" s="1">
         <f>3585+594</f>
         <v>4179</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J60" s="1">
         <f>3908+599</f>
         <v>4507</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="1">
+      <c r="G61" s="1">
+        <v>14791</v>
+      </c>
+      <c r="H61" s="1">
+        <v>14734</v>
+      </c>
+      <c r="I61" s="1">
         <v>14653</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J61" s="1">
         <v>14701</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="1">
+      <c r="G62" s="1">
+        <f>4344+9406</f>
+        <v>13750</v>
+      </c>
+      <c r="H62" s="1">
+        <f>8163+1956</f>
+        <v>10119</v>
+      </c>
+      <c r="I62" s="1">
         <f>8572+1025</f>
         <v>9597</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J62" s="1">
         <v>9258</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="1">
-        <v>476</v>
-      </c>
-      <c r="J42" s="1">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="1">
-        <v>11984</v>
-      </c>
-      <c r="J43" s="1">
-        <v>12501</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="1">
-        <v>2371</v>
-      </c>
-      <c r="J44" s="1">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" s="1">
-        <f>SUM(I35:I44)</f>
-        <v>104629</v>
-      </c>
-      <c r="J45" s="1">
-        <f>SUM(J35:J44)</f>
-        <v>109120</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="1">
-        <v>253626</v>
-      </c>
-      <c r="J46" s="1">
-        <v>256144</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="1">
-        <f>SUM(I45:I46)</f>
-        <v>358255</v>
-      </c>
-      <c r="J47" s="1">
-        <f>SUM(J45:J46)</f>
-        <v>365264</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="I50" s="1">
-        <f>I14</f>
-        <v>13910</v>
-      </c>
-      <c r="J50" s="1">
-        <f>J14</f>
-        <v>13624</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="I51" s="1">
-        <v>13910</v>
-      </c>
-      <c r="J51" s="1">
-        <v>13624</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="1">
-        <v>3933</v>
-      </c>
-      <c r="J52" s="1">
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I53" s="1">
-        <v>113</v>
-      </c>
-      <c r="J53" s="1">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="I54" s="1">
-        <v>4976</v>
-      </c>
-      <c r="J54" s="1">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="I55" s="1">
-        <v>-1920</v>
-      </c>
-      <c r="J55" s="1">
-        <v>-1924</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="I56" s="1">
-        <v>1378</v>
-      </c>
-      <c r="J56" s="1">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="I57" s="1">
-        <v>167</v>
-      </c>
-      <c r="J57" s="1">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>33</v>
-      </c>
-      <c r="I58" s="1">
-        <v>-97</v>
-      </c>
-      <c r="J58" s="1">
-        <v>-4615</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="1">
-        <v>-609</v>
-      </c>
-      <c r="J59" s="1">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="I60" s="1">
-        <v>-2647</v>
-      </c>
-      <c r="J60" s="1">
-        <v>-778</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>43</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1907</v>
-      </c>
-      <c r="J61" s="1">
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I62" s="1">
-        <v>2210</v>
-      </c>
-      <c r="J62" s="1">
-        <v>3424</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2843</v>
+      </c>
+      <c r="H63" s="1">
+        <v>924</v>
       </c>
       <c r="I63" s="1">
-        <v>-80</v>
+        <v>476</v>
       </c>
       <c r="J63" s="1">
-        <v>577</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="G64" s="1">
+        <v>11363</v>
+      </c>
+      <c r="H64" s="1">
+        <v>11697</v>
       </c>
       <c r="I64" s="1">
-        <v>112</v>
+        <v>11984</v>
       </c>
       <c r="J64" s="1">
-        <v>263</v>
+        <v>12501</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2242</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2422</v>
       </c>
       <c r="I65" s="1">
-        <f>SUM(I51:I64)</f>
-        <v>23353</v>
+        <v>2371</v>
       </c>
       <c r="J65" s="1">
-        <f>SUM(J51:J64)</f>
-        <v>23614</v>
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="1">
+        <f>SUM(G56:G65)</f>
+        <v>103092</v>
+      </c>
+      <c r="H66" s="1">
+        <f>SUM(H56:H65)</f>
+        <v>99766</v>
+      </c>
+      <c r="I66" s="1">
+        <f>SUM(I56:I65)</f>
+        <v>104629</v>
+      </c>
+      <c r="J66" s="1">
+        <f>SUM(J56:J65)</f>
+        <v>109120</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="G67" s="1">
+        <v>254004</v>
+      </c>
+      <c r="H67" s="1">
+        <v>255419</v>
       </c>
       <c r="I67" s="1">
-        <v>-7276</v>
+        <v>253626</v>
       </c>
       <c r="J67" s="1">
-        <v>-7595</v>
+        <v>256144</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="G68" s="1">
+        <f>SUM(G66:G67)</f>
+        <v>357096</v>
+      </c>
+      <c r="H68" s="1">
+        <f>SUM(H66:H67)</f>
+        <v>355185</v>
       </c>
       <c r="I68" s="1">
-        <v>-17054</v>
+        <f>SUM(I66:I67)</f>
+        <v>358255</v>
       </c>
       <c r="J68" s="1">
-        <v>-11621</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>66</v>
-      </c>
-      <c r="I69" s="1">
-        <v>28713</v>
-      </c>
-      <c r="J69" s="1">
-        <v>13735</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>67</v>
-      </c>
-      <c r="I70" s="1">
-        <v>-364</v>
-      </c>
-      <c r="J70" s="1">
-        <v>-903</v>
+        <f>SUM(J66:J67)</f>
+        <v>365264</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="G71" s="1">
+        <f>G24</f>
+        <v>16436</v>
+      </c>
+      <c r="H71" s="1">
+        <f>H24</f>
+        <v>16002</v>
       </c>
       <c r="I71" s="1">
-        <v>6</v>
+        <f>I24</f>
+        <v>13910</v>
       </c>
       <c r="J71" s="1">
-        <v>19</v>
+        <f>J24</f>
+        <v>13624</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="G72" s="1">
+        <v>16436</v>
+      </c>
+      <c r="H72" s="1">
+        <v>16002</v>
       </c>
       <c r="I72" s="1">
-        <v>-5649</v>
+        <v>13910</v>
       </c>
       <c r="J72" s="1">
-        <v>-84</v>
+        <v>13624</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3591</v>
+      </c>
+      <c r="H73" s="1">
+        <v>3698</v>
       </c>
       <c r="I73" s="1">
-        <v>791</v>
+        <v>3933</v>
       </c>
       <c r="J73" s="1">
-        <v>222</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="G74" s="1">
+        <v>191</v>
+      </c>
+      <c r="H74" s="1">
+        <v>201</v>
       </c>
       <c r="I74" s="1">
-        <f>SUM(I67:I73)</f>
-        <v>-833</v>
+        <v>113</v>
       </c>
       <c r="J74" s="1">
-        <f>SUM(J67:J73)</f>
-        <v>-6227</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4504</v>
+      </c>
+      <c r="H75" s="1">
+        <v>4782</v>
+      </c>
+      <c r="I75" s="1">
+        <v>4976</v>
+      </c>
+      <c r="J75" s="1">
+        <v>5100</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="G76" s="1">
+        <v>-2090</v>
+      </c>
+      <c r="H76" s="1">
+        <v>-2147</v>
       </c>
       <c r="I76" s="1">
-        <v>-2041</v>
+        <v>-1920</v>
       </c>
       <c r="J76" s="1">
-        <v>-2079</v>
+        <v>-1924</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1437</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1041</v>
       </c>
       <c r="I77" s="1">
-        <v>-15392</v>
+        <v>1378</v>
       </c>
       <c r="J77" s="1">
-        <v>-15407</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="G78" s="1">
+        <v>140</v>
+      </c>
+      <c r="H78" s="1">
+        <v>62</v>
       </c>
       <c r="I78" s="1">
-        <v>15094</v>
+        <v>167</v>
       </c>
       <c r="J78" s="1">
-        <v>8550</v>
+        <v>661</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>76</v>
+        <v>33</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4364</v>
+      </c>
+      <c r="H79" s="1">
+        <v>-1969</v>
       </c>
       <c r="I79" s="1">
-        <v>-15768</v>
+        <v>-97</v>
       </c>
       <c r="J79" s="1">
-        <v>-8718</v>
+        <v>-4615</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="1">
+        <v>3820</v>
+      </c>
+      <c r="H80" s="1">
+        <v>-4073</v>
+      </c>
+      <c r="I80" s="1">
+        <v>-609</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" s="1">
+        <v>-776</v>
+      </c>
+      <c r="H81" s="1">
+        <v>-845</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-2647</v>
+      </c>
+      <c r="J81" s="1">
+        <v>-778</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" s="1">
+        <v>-2373</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1201</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1907</v>
+      </c>
+      <c r="J82" s="1">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" s="1">
+        <v>-3216</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1497</v>
+      </c>
+      <c r="I83" s="1">
+        <v>2210</v>
+      </c>
+      <c r="J83" s="1">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84" s="1">
+        <v>-828</v>
+      </c>
+      <c r="H84" s="1">
+        <v>-114</v>
+      </c>
+      <c r="I84" s="1">
+        <v>-80</v>
+      </c>
+      <c r="J84" s="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>62</v>
+      </c>
+      <c r="G85" s="1">
+        <v>-94</v>
+      </c>
+      <c r="H85" s="1">
+        <v>86</v>
+      </c>
+      <c r="I85" s="1">
+        <v>112</v>
+      </c>
+      <c r="J85" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+      <c r="G86" s="1">
+        <f>SUM(G72:G85)</f>
+        <v>25106</v>
+      </c>
+      <c r="H86" s="1">
+        <f>SUM(H72:H85)</f>
+        <v>19422</v>
+      </c>
+      <c r="I86" s="1">
+        <f>SUM(I72:I85)</f>
+        <v>23353</v>
+      </c>
+      <c r="J86" s="1">
+        <f>SUM(J72:J85)</f>
+        <v>23614</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" s="1">
+        <v>-9786</v>
+      </c>
+      <c r="H88" s="1">
+        <v>-6828</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-7276</v>
+      </c>
+      <c r="J88" s="1">
+        <v>-7595</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G89" s="1">
+        <v>-28462</v>
+      </c>
+      <c r="H89" s="1">
+        <v>-21737</v>
+      </c>
+      <c r="I89" s="1">
+        <v>-17054</v>
+      </c>
+      <c r="J89" s="1">
+        <v>-11621</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>66</v>
+      </c>
+      <c r="G90" s="1">
+        <v>29779</v>
+      </c>
+      <c r="H90" s="1">
+        <v>25595</v>
+      </c>
+      <c r="I90" s="1">
+        <v>28713</v>
+      </c>
+      <c r="J90" s="1">
+        <v>13735</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="G91" s="1">
+        <v>-776</v>
+      </c>
+      <c r="H91" s="1">
+        <v>-488</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-364</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-903</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>68</v>
+      </c>
+      <c r="G92" s="1">
+        <v>12</v>
+      </c>
+      <c r="H92" s="1">
+        <v>113</v>
+      </c>
+      <c r="I92" s="1">
+        <v>6</v>
+      </c>
+      <c r="J92" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+      <c r="G93" s="1">
+        <v>-173</v>
+      </c>
+      <c r="H93" s="1">
+        <v>-1063</v>
+      </c>
+      <c r="I93" s="1">
+        <v>-5649</v>
+      </c>
+      <c r="J93" s="1">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>60</v>
+      </c>
+      <c r="G94" s="1">
+        <v>355</v>
+      </c>
+      <c r="H94" s="1">
+        <v>221</v>
+      </c>
+      <c r="I94" s="1">
+        <v>791</v>
+      </c>
+      <c r="J94" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+      <c r="G95" s="1">
+        <f>SUM(G88:G94)</f>
+        <v>-9051</v>
+      </c>
+      <c r="H95" s="1">
+        <f>SUM(H88:H94)</f>
+        <v>-4187</v>
+      </c>
+      <c r="I95" s="1">
+        <f>SUM(I88:I94)</f>
+        <v>-833</v>
+      </c>
+      <c r="J95" s="1">
+        <f>SUM(J88:J94)</f>
+        <v>-6227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+      <c r="G97" s="1">
+        <v>-2916</v>
+      </c>
+      <c r="H97" s="1">
+        <v>-2264</v>
+      </c>
+      <c r="I97" s="1">
+        <v>-2041</v>
+      </c>
+      <c r="J97" s="1">
+        <v>-2079</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>72</v>
+      </c>
+      <c r="G98" s="1">
+        <v>-13300</v>
+      </c>
+      <c r="H98" s="1">
+        <v>-15197</v>
+      </c>
+      <c r="I98" s="1">
+        <v>-15392</v>
+      </c>
+      <c r="J98" s="1">
+        <v>-15407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="G99" s="1">
+        <v>16422</v>
+      </c>
+      <c r="H99" s="1">
+        <v>12806</v>
+      </c>
+      <c r="I99" s="1">
+        <v>15094</v>
+      </c>
+      <c r="J99" s="1">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="G100" s="1">
+        <v>-16420</v>
+      </c>
+      <c r="H100" s="1">
+        <v>-13162</v>
+      </c>
+      <c r="I100" s="1">
+        <v>-15768</v>
+      </c>
+      <c r="J100" s="1">
+        <v>-8718</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
         <v>74</v>
       </c>
-      <c r="I80" s="1">
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
         <v>10</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J101" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
         <v>75</v>
       </c>
-      <c r="I81" s="1">
-        <f>SUM(I76:I80)</f>
+      <c r="G102" s="1">
+        <f>SUM(G97:G101)</f>
+        <v>-16214</v>
+      </c>
+      <c r="H102" s="1">
+        <f>SUM(H97:H101)</f>
+        <v>-17817</v>
+      </c>
+      <c r="I102" s="1">
+        <f>SUM(I97:I101)</f>
         <v>-18097</v>
       </c>
-      <c r="J81" s="1">
-        <f>SUM(J76:J80)</f>
+      <c r="J102" s="1">
+        <f>SUM(J97:J101)</f>
         <v>-17629</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
         <v>77</v>
       </c>
-      <c r="I83" s="1">
+      <c r="G104" s="1">
+        <v>100</v>
+      </c>
+      <c r="H104" s="1">
+        <v>-368</v>
+      </c>
+      <c r="I104" s="1">
         <v>-375</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J104" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
         <v>78</v>
       </c>
-      <c r="I84" s="1">
-        <f>I83+I81+I74+I65</f>
+      <c r="G105" s="1">
+        <f>G104+G102+G95+G86</f>
+        <v>-59</v>
+      </c>
+      <c r="H105" s="1">
+        <f>H104+H102+H95+H86</f>
+        <v>-2950</v>
+      </c>
+      <c r="I105" s="1">
+        <f>I104+I102+I95+I86</f>
         <v>4048</v>
       </c>
-      <c r="J84" s="1">
-        <f>J83+J81+J74+J65</f>
+      <c r="J105" s="1">
+        <f>J104+J102+J95+J86</f>
         <v>-105</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3" t="s">
+    <row r="109" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I88" s="4">
-        <f>I65+I67</f>
+      <c r="G109" s="4">
+        <f>G86+G88</f>
+        <v>15320</v>
+      </c>
+      <c r="H109" s="4">
+        <f>H86+H88</f>
+        <v>12594</v>
+      </c>
+      <c r="I109" s="4">
+        <f>I86+I88</f>
         <v>16077</v>
       </c>
-      <c r="J88" s="4">
-        <f>J65+J67</f>
+      <c r="J109" s="4">
+        <f>J86+J88</f>
         <v>16019</v>
+      </c>
+      <c r="S109" s="4">
+        <f>SUM(G109:J109)</f>
+        <v>60010</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\models\financial-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2278D91B-A71A-4D61-B898-18B2CE4803A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D33F60-F4E3-40CB-8EEE-0F566668203E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Price</t>
   </si>
@@ -361,13 +361,16 @@
   </si>
   <si>
     <t xml:space="preserve">G&amp;A % </t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +393,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -408,21 +419,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -809,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="I1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,21 +910,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A5AAC7-0C74-4175-A509-F8C6D1FBBAAD}">
   <dimension ref="A1:AC109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G1" t="s">
         <v>85</v>
       </c>
@@ -1132,35 +1148,35 @@
         <v>96</v>
       </c>
       <c r="C6" s="4">
-        <f>SUM(C3:C5)</f>
+        <f t="shared" ref="C6:J6" si="1">SUM(C3:C5)</f>
         <v>44684</v>
       </c>
       <c r="D6" s="4">
-        <f>SUM(D3:D5)</f>
+        <f t="shared" si="1"/>
         <v>50444</v>
       </c>
       <c r="E6" s="4">
-        <f>SUM(E3:E5)</f>
+        <f t="shared" si="1"/>
         <v>53130</v>
       </c>
       <c r="F6" s="4">
-        <f>SUM(F3:F5)</f>
+        <f t="shared" si="1"/>
         <v>61239</v>
       </c>
       <c r="G6" s="4">
-        <f>SUM(G3:G5)</f>
+        <f t="shared" si="1"/>
         <v>54661</v>
       </c>
       <c r="H6" s="4">
-        <f>SUM(H3:H5)</f>
+        <f t="shared" si="1"/>
         <v>56288</v>
       </c>
       <c r="I6" s="4">
-        <f>SUM(I3:I5)</f>
+        <f t="shared" si="1"/>
         <v>54482</v>
       </c>
       <c r="J6" s="4">
-        <f>SUM(J3:J5)</f>
+        <f t="shared" si="1"/>
         <v>59042</v>
       </c>
       <c r="R6" s="4">
@@ -1215,35 +1231,35 @@
         <v>97</v>
       </c>
       <c r="C8" s="4">
-        <f>SUM(C6:C7)</f>
+        <f t="shared" ref="C8:J8" si="2">SUM(C6:C7)</f>
         <v>51178</v>
       </c>
       <c r="D8" s="4">
-        <f>SUM(D6:D7)</f>
+        <f t="shared" si="2"/>
         <v>57067</v>
       </c>
       <c r="E8" s="4">
-        <f>SUM(E6:E7)</f>
+        <f t="shared" si="2"/>
         <v>59884</v>
       </c>
       <c r="F8" s="4">
-        <f>SUM(F6:F7)</f>
+        <f t="shared" si="2"/>
         <v>69400</v>
       </c>
       <c r="G8" s="4">
-        <f>SUM(G6:G7)</f>
+        <f t="shared" si="2"/>
         <v>61472</v>
       </c>
       <c r="H8" s="4">
-        <f>SUM(H6:H7)</f>
+        <f t="shared" si="2"/>
         <v>62841</v>
       </c>
       <c r="I8" s="4">
-        <f>SUM(I6:I7)</f>
+        <f t="shared" si="2"/>
         <v>61377</v>
       </c>
       <c r="J8" s="4">
-        <f>SUM(J6:J7)</f>
+        <f t="shared" si="2"/>
         <v>67838</v>
       </c>
       <c r="R8" s="4">
@@ -1292,33 +1308,32 @@
         <v>26280</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="1">
         <v>198</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="1">
         <v>192</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="1">
         <v>182</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="1">
         <v>181</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="1">
         <v>440</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="1">
         <v>193</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="1">
         <v>209</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="1">
         <v>226</v>
       </c>
       <c r="R10" s="1">
@@ -1384,35 +1399,35 @@
         <v>7</v>
       </c>
       <c r="C13" s="1">
-        <f>SUM(C8:C11)</f>
+        <f t="shared" ref="C13:J13" si="3">SUM(C8:C11)</f>
         <v>55314</v>
       </c>
       <c r="D13" s="1">
-        <f>SUM(D8:D11)</f>
+        <f t="shared" si="3"/>
         <v>61880</v>
       </c>
       <c r="E13" s="1">
-        <f>SUM(E8:E11)</f>
+        <f t="shared" si="3"/>
         <v>65118</v>
       </c>
       <c r="F13" s="1">
-        <f>SUM(F8:F11)</f>
+        <f t="shared" si="3"/>
         <v>75325</v>
       </c>
       <c r="G13" s="1">
-        <f>SUM(G8:G11)</f>
+        <f t="shared" si="3"/>
         <v>68011</v>
       </c>
       <c r="H13" s="1">
-        <f>SUM(H8:H11)</f>
+        <f t="shared" si="3"/>
         <v>69685</v>
       </c>
       <c r="I13" s="1">
-        <f>SUM(I8:I11)</f>
+        <f t="shared" si="3"/>
         <v>69092</v>
       </c>
       <c r="J13" s="1">
-        <f>SUM(J8:J11)</f>
+        <f t="shared" si="3"/>
         <v>76048</v>
       </c>
       <c r="R13" s="1">
@@ -1466,35 +1481,35 @@
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:J15" si="1">C13-C14</f>
+        <f t="shared" ref="C15:J15" si="4">C13-C14</f>
         <v>31211</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35653</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37497</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>42337</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38412</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>39581</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37934</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>40706</v>
       </c>
       <c r="R15" s="1">
@@ -1622,35 +1637,35 @@
         <v>13</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:J19" si="2">SUM(C16:C18)</f>
+        <f t="shared" ref="C19:J19" si="5">SUM(C16:C18)</f>
         <v>14774</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16292</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16466</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20452</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18318</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20128</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20799</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22546</v>
       </c>
       <c r="R19" s="1">
@@ -1667,35 +1682,35 @@
         <v>14</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20:J20" si="3">C15-C19</f>
+        <f t="shared" ref="C20:J20" si="6">C15-C19</f>
         <v>16437</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19361</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21031</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21885</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20094</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19453</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17135</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18160</v>
       </c>
       <c r="R20" s="1">
@@ -1749,35 +1764,35 @@
         <v>16</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:J22" si="4">C20+C21</f>
+        <f t="shared" ref="C22:J22" si="7">C20+C21</f>
         <v>21283</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21985</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23064</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24402</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18934</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19014</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16233</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17147</v>
       </c>
       <c r="R22" s="1">
@@ -1832,35 +1847,35 @@
         <v>18</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24:J24" si="5">C22-C23</f>
+        <f t="shared" ref="C24:J24" si="8">C22-C23</f>
         <v>17930</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18525</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18936</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20642</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16436</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16002</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13910</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13624</v>
       </c>
       <c r="R24" s="4">
@@ -1878,31 +1893,31 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:J25" si="6">D24/D26</f>
+        <f t="shared" ref="D25:J25" si="9">D24/D26</f>
         <v>1.3846326332311831</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4221554637626737</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5575341432128575</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.959761685726178</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2184573212518084</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0685205100629898</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0563696983794681</v>
       </c>
       <c r="R25" s="2">
@@ -1955,15 +1970,15 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
-        <f t="shared" ref="G28:I28" si="7">G13/C13-1</f>
+        <f t="shared" ref="G28:I28" si="10">G13/C13-1</f>
         <v>0.22954405756228069</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12613122171945701</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.1027672840074931E-2</v>
       </c>
       <c r="J28" s="5">
@@ -1980,31 +1995,31 @@
         <v>87</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:F29" si="8">C15/C13</f>
+        <f t="shared" ref="C29:F29" si="11">C15/C13</f>
         <v>0.56425136493473627</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.57616354234001288</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.57583156730857832</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.56205774975107869</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" ref="G29:I29" si="9">G15/G13</f>
+        <f t="shared" ref="G29:I29" si="12">G15/G13</f>
         <v>0.5647909896928438</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.56799885197675248</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.54903606785156023</v>
       </c>
       <c r="J29" s="5">
@@ -2025,31 +2040,31 @@
         <v>88</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:I30" si="10">C23/C22</f>
+        <f t="shared" ref="C30:I30" si="13">C23/C22</f>
         <v>0.15754357938260583</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.15738003183989083</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.14310355448777182</v>
       </c>
       <c r="J30" s="5">
@@ -2074,31 +2089,31 @@
         <v>0.13531836424774921</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" ref="D31:J31" si="11">D16/D13</f>
+        <f t="shared" ref="D31:J31" si="14">D16/D13</f>
         <v>0.12403038138332256</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.11815473448201726</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.11560570859608364</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.13408125156224729</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.14122120972949703</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.14868581022404909</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.13500683778666106</v>
       </c>
       <c r="R31" s="5"/>
@@ -2113,31 +2128,31 @@
         <v>8.1642983693097582E-2</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" ref="D32:J32" si="12">D17/D13</f>
+        <f t="shared" ref="D32:J32" si="15">D17/D13</f>
         <v>8.5261797026502911E-2</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.4707761294880057E-2</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.10094922004646532</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.5647909896928442E-2</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9.514242663413934E-2</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.10028657442250911</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9.4453503050704823E-2</v>
       </c>
       <c r="R32" s="5"/>
@@ -2152,31 +2167,31 @@
         <v>5.0131973822178835E-2</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ref="D33:J33" si="13">D18/D13</f>
+        <f t="shared" ref="D33:J33" si="16">D18/D13</f>
         <v>5.3991596638655465E-2</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.0001535673700054E-2</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.4961832061068701E-2</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.9609621972916143E-2</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.2479012700007176E-2</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.2061020089156487E-2</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.7010309278350513E-2</v>
       </c>
       <c r="R33" s="5"/>
@@ -2203,19 +2218,19 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5">
-        <f t="shared" ref="G35:I40" si="14">G3/C3-1</f>
+        <f t="shared" ref="G35:I40" si="17">G3/C3-1</f>
         <v>0.24276169265033398</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.13513739712651684</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.2530190370722032E-2</v>
       </c>
       <c r="J35" s="5">
-        <f>J3/F3-1</f>
+        <f t="shared" ref="J35:J41" si="18">J3/F3-1</f>
         <v>-1.6096625943973542E-2</v>
       </c>
       <c r="K35" s="5"/>
@@ -2223,7 +2238,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="S35" s="5">
-        <f>S3/R3-1</f>
+        <f t="shared" ref="S35:S41" si="19">S3/R3-1</f>
         <v>9.0627118985438182E-2</v>
       </c>
     </row>
@@ -2236,19 +2251,19 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.143880099916736</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.8598195697432374E-2</v>
       </c>
       <c r="J36" s="5">
-        <f>J4/F4-1</f>
+        <f t="shared" si="18"/>
         <v>-7.7609174099386058E-2</v>
       </c>
       <c r="K36" s="5"/>
@@ -2256,7 +2271,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="S36" s="5">
-        <f>S4/R4-1</f>
+        <f t="shared" si="19"/>
         <v>1.3797885248743258E-2</v>
       </c>
     </row>
@@ -2269,23 +2284,23 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.20205882352941185</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8.7139660392260065E-2</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.587698462307785E-2</v>
       </c>
       <c r="J37" s="5">
-        <f>J5/F5-1</f>
+        <f t="shared" si="18"/>
         <v>-8.9199355185384244E-2</v>
       </c>
       <c r="S37" s="5">
-        <f>S5/R5-1</f>
+        <f t="shared" si="19"/>
         <v>3.4036781174095365E-2</v>
       </c>
     </row>
@@ -2298,23 +2313,23 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.22327902604959271</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.11585124098009669</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.5447016751364515E-2</v>
       </c>
       <c r="J38" s="5">
-        <f>J6/F6-1</f>
+        <f t="shared" si="18"/>
         <v>-3.5875830761442851E-2</v>
       </c>
       <c r="S38" s="5">
-        <f>S6/R6-1</f>
+        <f t="shared" si="19"/>
         <v>7.14855105323704E-2</v>
       </c>
     </row>
@@ -2327,23 +2342,23 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.8814290113951442E-2</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.0569228446323464E-2</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.0876517619188739E-2</v>
       </c>
       <c r="J39" s="5">
-        <f>J7/F7-1</f>
+        <f t="shared" si="18"/>
         <v>7.7809092023036319E-2</v>
       </c>
       <c r="S39" s="5">
-        <f>S7/R7-1</f>
+        <f t="shared" si="19"/>
         <v>3.6494006849315141E-2</v>
       </c>
     </row>
@@ -2356,23 +2371,23 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.20114111532299028</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.10117931554138115</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.4931534299645897E-2</v>
       </c>
       <c r="J40" s="5">
-        <f>J8/F8-1</f>
+        <f t="shared" si="18"/>
         <v>-2.2507204610951015E-2</v>
       </c>
       <c r="S40" s="5">
-        <f>S8/R8-1</f>
+        <f t="shared" si="19"/>
         <v>6.7355986005919188E-2</v>
       </c>
     </row>
@@ -2385,23 +2400,23 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5">
-        <f t="shared" ref="G41:I41" si="15">G9/C9-1</f>
+        <f t="shared" ref="G41:I41" si="20">G9/C9-1</f>
         <v>0.4383493946132937</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.35609334485738975</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.37635270541082155</v>
       </c>
       <c r="J41" s="5">
-        <f>J9/F9-1</f>
+        <f t="shared" si="18"/>
         <v>0.3201588160981772</v>
       </c>
       <c r="S41" s="5">
-        <f>S9/R9-1</f>
+        <f t="shared" si="19"/>
         <v>0.36832239925023424</v>
       </c>
     </row>
@@ -3462,6 +3477,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{C588844C-B95F-4F43-93F4-687D6E976343}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
